--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N2">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P2">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q2">
-        <v>6.68305752388758</v>
+        <v>3.327468019578666</v>
       </c>
       <c r="R2">
-        <v>6.68305752388758</v>
+        <v>29.947212176208</v>
       </c>
       <c r="S2">
-        <v>0.003250719811863107</v>
+        <v>0.001050905155562998</v>
       </c>
       <c r="T2">
-        <v>0.003250719811863107</v>
+        <v>0.001050905155562998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N3">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P3">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q3">
-        <v>0.9550437717315428</v>
+        <v>12.53416829918578</v>
       </c>
       <c r="R3">
-        <v>0.9550437717315428</v>
+        <v>112.807514692672</v>
       </c>
       <c r="S3">
-        <v>0.000464544813338407</v>
+        <v>0.003958632211881191</v>
       </c>
       <c r="T3">
-        <v>0.000464544813338407</v>
+        <v>0.003958632211881191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N4">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P4">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q4">
-        <v>20.2112088969997</v>
+        <v>5.073323326080445</v>
       </c>
       <c r="R4">
-        <v>20.2112088969997</v>
+        <v>45.659909934724</v>
       </c>
       <c r="S4">
-        <v>0.009830975859229488</v>
+        <v>0.001602293878662448</v>
       </c>
       <c r="T4">
-        <v>0.009830975859229488</v>
+        <v>0.001602293878662447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N5">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P5">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q5">
-        <v>5.940084797999576</v>
+        <v>4.157749798766667</v>
       </c>
       <c r="R5">
-        <v>5.940084797999576</v>
+        <v>37.4197481889</v>
       </c>
       <c r="S5">
-        <v>0.002889328913896822</v>
+        <v>0.001313130786939365</v>
       </c>
       <c r="T5">
-        <v>0.002889328913896822</v>
+        <v>0.001313130786939365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N6">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O6">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P6">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q6">
-        <v>307.6457438736286</v>
+        <v>36.91174940098444</v>
       </c>
       <c r="R6">
-        <v>307.6457438736286</v>
+        <v>332.20574460886</v>
       </c>
       <c r="S6">
-        <v>0.1496426016192092</v>
+        <v>0.0116577372098247</v>
       </c>
       <c r="T6">
-        <v>0.1496426016192092</v>
+        <v>0.0116577372098247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N7">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P7">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q7">
-        <v>43.96418114553533</v>
+        <v>15.53480901379955</v>
       </c>
       <c r="R7">
-        <v>43.96418114553533</v>
+        <v>139.813281124196</v>
       </c>
       <c r="S7">
-        <v>0.02138470814463309</v>
+        <v>0.004906316390489509</v>
       </c>
       <c r="T7">
-        <v>0.02138470814463309</v>
+        <v>0.004906316390489509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N8">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P8">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q8">
-        <v>930.3963602704082</v>
+        <v>89.05002169017466</v>
       </c>
       <c r="R8">
-        <v>930.3963602704082</v>
+        <v>801.450195211572</v>
       </c>
       <c r="S8">
-        <v>0.4525560150284317</v>
+        <v>0.02812442564333077</v>
       </c>
       <c r="T8">
-        <v>0.4525560150284317</v>
+        <v>0.02812442564333078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N9">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P9">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q9">
-        <v>273.4439737831221</v>
+        <v>335.4406270303164</v>
       </c>
       <c r="R9">
-        <v>273.4439737831221</v>
+        <v>3018.965643272848</v>
       </c>
       <c r="S9">
-        <v>0.1330064479969189</v>
+        <v>0.1059412989868737</v>
       </c>
       <c r="T9">
-        <v>0.1330064479969189</v>
+        <v>0.1059412989868737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N10">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P10">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q10">
-        <v>20.69661555920395</v>
+        <v>135.7727706383601</v>
       </c>
       <c r="R10">
-        <v>20.69661555920395</v>
+        <v>1221.954935745241</v>
       </c>
       <c r="S10">
-        <v>0.01006708351624092</v>
+        <v>0.04288074410013176</v>
       </c>
       <c r="T10">
-        <v>0.01006708351624092</v>
+        <v>0.04288074410013176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N11">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P11">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q11">
-        <v>2.95765429447355</v>
+        <v>111.2701031486917</v>
       </c>
       <c r="R11">
-        <v>2.95765429447355</v>
+        <v>1001.430928338225</v>
       </c>
       <c r="S11">
-        <v>0.001438638733442226</v>
+        <v>0.03514213340923203</v>
       </c>
       <c r="T11">
-        <v>0.001438638733442226</v>
+        <v>0.03514213340923204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N12">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O12">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P12">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q12">
-        <v>62.59165345095445</v>
+        <v>987.835815532846</v>
       </c>
       <c r="R12">
-        <v>62.59165345095445</v>
+        <v>8890.522339795614</v>
       </c>
       <c r="S12">
-        <v>0.03044533541766206</v>
+        <v>0.3119854932594351</v>
       </c>
       <c r="T12">
-        <v>0.03044533541766206</v>
+        <v>0.3119854932594352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N13">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P13">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q13">
-        <v>18.39571947627858</v>
+        <v>415.7440647038098</v>
       </c>
       <c r="R13">
-        <v>18.39571947627858</v>
+        <v>3741.696582334288</v>
       </c>
       <c r="S13">
-        <v>0.008947899900797073</v>
+        <v>0.1313033148391529</v>
       </c>
       <c r="T13">
-        <v>0.008947899900797073</v>
+        <v>0.1313033148391529</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.5939366706792319</v>
+        <v>0.167924</v>
       </c>
       <c r="N14">
-        <v>0.5939366706792319</v>
+        <v>0.503772</v>
       </c>
       <c r="O14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P14">
-        <v>0.1977856521474601</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q14">
-        <v>24.92512472765261</v>
+        <v>19.16939187148533</v>
       </c>
       <c r="R14">
-        <v>24.92512472765261</v>
+        <v>172.524526843368</v>
       </c>
       <c r="S14">
-        <v>0.01212388139346836</v>
+        <v>0.006054216788326095</v>
       </c>
       <c r="T14">
-        <v>0.01212388139346836</v>
+        <v>0.006054216788326096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08487664756852251</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N15">
-        <v>0.08487664756852251</v>
+        <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P15">
-        <v>0.02826460112697223</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q15">
-        <v>3.561930305955109</v>
+        <v>72.20877330645686</v>
       </c>
       <c r="R15">
-        <v>3.561930305955109</v>
+        <v>649.8789597581118</v>
       </c>
       <c r="S15">
-        <v>0.001732565876121384</v>
+        <v>0.02280550006735872</v>
       </c>
       <c r="T15">
-        <v>0.001732565876121384</v>
+        <v>0.02280550006735873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.79621050391671</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N16">
-        <v>1.79621050391671</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P16">
-        <v>0.5981524351830307</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q16">
-        <v>75.37970470158616</v>
+        <v>29.22718486132822</v>
       </c>
       <c r="R16">
-        <v>75.37970470158616</v>
+        <v>263.044663751954</v>
       </c>
       <c r="S16">
-        <v>0.03666559783601807</v>
+        <v>0.009230742135652992</v>
       </c>
       <c r="T16">
-        <v>0.03666559783601807</v>
+        <v>0.009230742135652992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.527907200538939</v>
+        <v>0.209825</v>
       </c>
       <c r="N17">
-        <v>0.527907200538939</v>
+        <v>0.629475</v>
       </c>
       <c r="O17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P17">
-        <v>0.1757973115425368</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q17">
-        <v>22.15413438441371</v>
+        <v>23.95260742618333</v>
       </c>
       <c r="R17">
-        <v>22.15413438441371</v>
+        <v>215.57346683565</v>
       </c>
       <c r="S17">
-        <v>0.0107760382580395</v>
+        <v>0.007564886720245605</v>
       </c>
       <c r="T17">
-        <v>0.0107760382580395</v>
+        <v>0.007564886720245606</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.8948812832746</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>38.8948812832746</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5939366706792319</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N18">
-        <v>0.5939366706792319</v>
+        <v>5.588365</v>
       </c>
       <c r="O18">
-        <v>0.1977856521474601</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P18">
-        <v>0.1977856521474601</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q18">
-        <v>23.10109629585209</v>
+        <v>212.6469089308121</v>
       </c>
       <c r="R18">
-        <v>23.10109629585209</v>
+        <v>1913.822180377309</v>
       </c>
       <c r="S18">
-        <v>0.01123665195702228</v>
+        <v>0.06715969367549994</v>
       </c>
       <c r="T18">
-        <v>0.01123665195702228</v>
+        <v>0.06715969367549995</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.8948812832746</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>38.8948812832746</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08487664756852251</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N19">
-        <v>0.08487664756852251</v>
+        <v>2.351939</v>
       </c>
       <c r="O19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P19">
-        <v>0.02826460112697223</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q19">
-        <v>3.301267130900021</v>
+        <v>89.49532794365174</v>
       </c>
       <c r="R19">
-        <v>3.301267130900021</v>
+        <v>805.4579514928657</v>
       </c>
       <c r="S19">
-        <v>0.001605776162828326</v>
+        <v>0.02826506550367803</v>
       </c>
       <c r="T19">
-        <v>0.001605776162828326</v>
+        <v>0.02826506550367803</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.79621050391671</v>
+        <v>0.167924</v>
       </c>
       <c r="N20">
-        <v>1.79621050391671</v>
+        <v>0.503772</v>
       </c>
       <c r="O20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="P20">
-        <v>0.5981524351830307</v>
+        <v>0.04291332780772943</v>
       </c>
       <c r="Q20">
-        <v>69.86339430961128</v>
+        <v>7.108229189162666</v>
       </c>
       <c r="R20">
-        <v>69.86339430961128</v>
+        <v>63.974062702464</v>
       </c>
       <c r="S20">
-        <v>0.03398239790612312</v>
+        <v>0.002244972651235372</v>
       </c>
       <c r="T20">
-        <v>0.03398239790612312</v>
+        <v>0.002244972651235372</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.527907200538939</v>
+        <v>0.6325493333333333</v>
       </c>
       <c r="N21">
-        <v>0.527907200538939</v>
+        <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632312</v>
       </c>
       <c r="P21">
-        <v>0.1757973115425368</v>
+        <v>0.1616492990632313</v>
       </c>
       <c r="Q21">
-        <v>20.53288789354787</v>
+        <v>26.77583689517511</v>
       </c>
       <c r="R21">
-        <v>20.53288789354787</v>
+        <v>240.982532056576</v>
       </c>
       <c r="S21">
-        <v>0.009987444404263216</v>
+        <v>0.008456539588685955</v>
       </c>
       <c r="T21">
-        <v>0.009987444404263216</v>
+        <v>0.008456539588685957</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.5939366706792319</v>
+        <v>0.2560303333333334</v>
       </c>
       <c r="N22">
-        <v>0.5939366706792319</v>
+        <v>0.7680910000000001</v>
       </c>
       <c r="O22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="P22">
-        <v>0.1977856521474601</v>
+        <v>0.06542908472318174</v>
       </c>
       <c r="Q22">
-        <v>23.56996191198958</v>
+        <v>10.83777356846578</v>
       </c>
       <c r="R22">
-        <v>23.56996191198958</v>
+        <v>97.539962116192</v>
       </c>
       <c r="S22">
-        <v>0.01146471384965626</v>
+        <v>0.00342286448762541</v>
       </c>
       <c r="T22">
-        <v>0.01146471384965626</v>
+        <v>0.00342286448762541</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.08487664756852251</v>
+        <v>0.209825</v>
       </c>
       <c r="N23">
-        <v>0.08487664756852251</v>
+        <v>0.629475</v>
       </c>
       <c r="O23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310657</v>
       </c>
       <c r="P23">
-        <v>0.02826460112697223</v>
+        <v>0.05362121559310658</v>
       </c>
       <c r="Q23">
-        <v>3.368270472539777</v>
+        <v>8.881900083466666</v>
       </c>
       <c r="R23">
-        <v>3.368270472539777</v>
+        <v>79.93710075119999</v>
       </c>
       <c r="S23">
-        <v>0.001638367396608803</v>
+        <v>0.002805146295618625</v>
       </c>
       <c r="T23">
-        <v>0.001638367396608803</v>
+        <v>0.002805146295618625</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.79621050391671</v>
+        <v>1.862788333333333</v>
       </c>
       <c r="N24">
-        <v>1.79621050391671</v>
+        <v>5.588365</v>
       </c>
       <c r="O24">
-        <v>0.5981524351830307</v>
+        <v>0.476039436797285</v>
       </c>
       <c r="P24">
-        <v>0.5981524351830307</v>
+        <v>0.4760394367972851</v>
       </c>
       <c r="Q24">
-        <v>71.28135919746443</v>
+        <v>78.85189969409777</v>
       </c>
       <c r="R24">
-        <v>71.28135919746443</v>
+        <v>709.66709724688</v>
       </c>
       <c r="S24">
-        <v>0.03467211313556635</v>
+        <v>0.02490358056843365</v>
       </c>
       <c r="T24">
-        <v>0.03467211313556635</v>
+        <v>0.02490358056843366</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.527907200538939</v>
+        <v>0.7839796666666666</v>
       </c>
       <c r="N25">
-        <v>0.527907200538939</v>
+        <v>2.351939</v>
       </c>
       <c r="O25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="P25">
-        <v>0.1757973115425368</v>
+        <v>0.200347636015466</v>
       </c>
       <c r="Q25">
-        <v>20.9496285109626</v>
+        <v>33.18588855857422</v>
       </c>
       <c r="R25">
-        <v>20.9496285109626</v>
+        <v>298.672997027168</v>
       </c>
       <c r="S25">
-        <v>0.01019015206862132</v>
+        <v>0.01048100873485201</v>
       </c>
       <c r="T25">
-        <v>0.01019015206862132</v>
+        <v>0.01048100873485201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H26">
+        <v>138.661867</v>
+      </c>
+      <c r="I26">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J26">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.167924</v>
+      </c>
+      <c r="N26">
+        <v>0.503772</v>
+      </c>
+      <c r="O26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P26">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q26">
+        <v>7.761551784702666</v>
+      </c>
+      <c r="R26">
+        <v>69.85396606232401</v>
+      </c>
+      <c r="S26">
+        <v>0.002451309745944917</v>
+      </c>
+      <c r="T26">
+        <v>0.002451309745944917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H27">
+        <v>138.661867</v>
+      </c>
+      <c r="I27">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J27">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.897648</v>
+      </c>
+      <c r="O27">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P27">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q27">
+        <v>29.23682384320178</v>
+      </c>
+      <c r="R27">
+        <v>263.131414588816</v>
+      </c>
+      <c r="S27">
+        <v>0.00923378638902694</v>
+      </c>
+      <c r="T27">
+        <v>0.009233786389026942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H28">
+        <v>138.661867</v>
+      </c>
+      <c r="I28">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J28">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P28">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q28">
+        <v>11.83388134287745</v>
+      </c>
+      <c r="R28">
+        <v>106.504932085897</v>
+      </c>
+      <c r="S28">
+        <v>0.003737462491112204</v>
+      </c>
+      <c r="T28">
+        <v>0.003737462491112204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H29">
+        <v>138.661867</v>
+      </c>
+      <c r="I29">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J29">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.209825</v>
+      </c>
+      <c r="N29">
+        <v>0.629475</v>
+      </c>
+      <c r="O29">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P29">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q29">
+        <v>9.698242081091667</v>
+      </c>
+      <c r="R29">
+        <v>87.284178729825</v>
+      </c>
+      <c r="S29">
+        <v>0.003062969363777019</v>
+      </c>
+      <c r="T29">
+        <v>0.00306296936377702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H30">
+        <v>138.661867</v>
+      </c>
+      <c r="I30">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J30">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.588365</v>
+      </c>
+      <c r="O30">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P30">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q30">
+        <v>86.09923604193943</v>
+      </c>
+      <c r="R30">
+        <v>774.8931243774549</v>
+      </c>
+      <c r="S30">
+        <v>0.02719248705445611</v>
+      </c>
+      <c r="T30">
+        <v>0.02719248705445611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H31">
+        <v>138.661867</v>
+      </c>
+      <c r="I31">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J31">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N31">
+        <v>2.351939</v>
+      </c>
+      <c r="O31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P31">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q31">
+        <v>36.23602809001255</v>
+      </c>
+      <c r="R31">
+        <v>326.124252810113</v>
+      </c>
+      <c r="S31">
+        <v>0.01144432598986832</v>
+      </c>
+      <c r="T31">
+        <v>0.01144432598986832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.330706</v>
+      </c>
+      <c r="H32">
+        <v>168.992118</v>
+      </c>
+      <c r="I32">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J32">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.167924</v>
+      </c>
+      <c r="N32">
+        <v>0.503772</v>
+      </c>
+      <c r="O32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="P32">
+        <v>0.04291332780772943</v>
+      </c>
+      <c r="Q32">
+        <v>9.459277474343999</v>
+      </c>
+      <c r="R32">
+        <v>85.133497269096</v>
+      </c>
+      <c r="S32">
+        <v>0.002987497823329275</v>
+      </c>
+      <c r="T32">
+        <v>0.002987497823329275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.330706</v>
+      </c>
+      <c r="H33">
+        <v>168.992118</v>
+      </c>
+      <c r="I33">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J33">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6325493333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.897648</v>
+      </c>
+      <c r="O33">
+        <v>0.1616492990632312</v>
+      </c>
+      <c r="P33">
+        <v>0.1616492990632313</v>
+      </c>
+      <c r="Q33">
+        <v>35.631950526496</v>
+      </c>
+      <c r="R33">
+        <v>320.687554738464</v>
+      </c>
+      <c r="S33">
+        <v>0.01125354181940471</v>
+      </c>
+      <c r="T33">
+        <v>0.01125354181940472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.330706</v>
+      </c>
+      <c r="H34">
+        <v>168.992118</v>
+      </c>
+      <c r="I34">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J34">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2560303333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.7680910000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="P34">
+        <v>0.06542908472318174</v>
+      </c>
+      <c r="Q34">
+        <v>14.422369434082</v>
+      </c>
+      <c r="R34">
+        <v>129.801324906738</v>
+      </c>
+      <c r="S34">
+        <v>0.004554977629996916</v>
+      </c>
+      <c r="T34">
+        <v>0.004554977629996917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.330706</v>
+      </c>
+      <c r="H35">
+        <v>168.992118</v>
+      </c>
+      <c r="I35">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J35">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.209825</v>
+      </c>
+      <c r="N35">
+        <v>0.629475</v>
+      </c>
+      <c r="O35">
+        <v>0.05362121559310657</v>
+      </c>
+      <c r="P35">
+        <v>0.05362121559310658</v>
+      </c>
+      <c r="Q35">
+        <v>11.81959038645</v>
+      </c>
+      <c r="R35">
+        <v>106.37631347805</v>
+      </c>
+      <c r="S35">
+        <v>0.003732949017293925</v>
+      </c>
+      <c r="T35">
+        <v>0.003732949017293926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.330706</v>
+      </c>
+      <c r="H36">
+        <v>168.992118</v>
+      </c>
+      <c r="I36">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J36">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.862788333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.588365</v>
+      </c>
+      <c r="O36">
+        <v>0.476039436797285</v>
+      </c>
+      <c r="P36">
+        <v>0.4760394367972851</v>
+      </c>
+      <c r="Q36">
+        <v>104.93218194523</v>
+      </c>
+      <c r="R36">
+        <v>944.38963750707</v>
+      </c>
+      <c r="S36">
+        <v>0.03314044502963543</v>
+      </c>
+      <c r="T36">
+        <v>0.03314044502963544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.330706</v>
+      </c>
+      <c r="H37">
+        <v>168.992118</v>
+      </c>
+      <c r="I37">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J37">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7839796666666666</v>
+      </c>
+      <c r="N37">
+        <v>2.351939</v>
+      </c>
+      <c r="O37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="P37">
+        <v>0.200347636015466</v>
+      </c>
+      <c r="Q37">
+        <v>44.162128112978</v>
+      </c>
+      <c r="R37">
+        <v>397.459153016802</v>
+      </c>
+      <c r="S37">
+        <v>0.01394760455742525</v>
+      </c>
+      <c r="T37">
+        <v>0.01394760455742525</v>
       </c>
     </row>
   </sheetData>
